--- a/DATNFE/src/main/resources/excel/export.xlsx
+++ b/DATNFE/src/main/resources/excel/export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="293">
   <si>
     <t>Mã</t>
   </si>
@@ -62,85 +62,73 @@
     <t>Độ hot</t>
   </si>
   <si>
-    <t>SP61</t>
+    <t>SP57</t>
+  </si>
+  <si>
+    <t>Giày Balenciaga Speed Sneaker Màu Đen</t>
+  </si>
+  <si>
+    <t>Balenciaga</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Da cao cấp</t>
+  </si>
+  <si>
+    <t>Đế kếp</t>
+  </si>
+  <si>
+    <t>Đen</t>
+  </si>
+  <si>
+    <t>Tây Ban Nha</t>
+  </si>
+  <si>
+    <t>Giày thể thao</t>
+  </si>
+  <si>
+    <t>Đôi giày được làm từ chất liệu cao cấp mang lại cảm giác thoải mái khi đi lên chân.</t>
+  </si>
+  <si>
+    <t>12000000</t>
+  </si>
+  <si>
+    <t>13000000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10400000</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>SP56</t>
   </si>
   <si>
     <t>Giày Cao Gót Balenciaga Black BB Pumps Velvet</t>
   </si>
   <si>
-    <t>Balenciaga</t>
-  </si>
-  <si>
     <t>Nữ</t>
   </si>
   <si>
-    <t>Da cao cấp</t>
-  </si>
-  <si>
     <t>Đế da</t>
   </si>
   <si>
-    <t>Đen</t>
-  </si>
-  <si>
-    <t>Tây Ban Nha</t>
-  </si>
-  <si>
     <t>Giày cao gót</t>
   </si>
   <si>
-    <t>Đôi giày được làm từ chất liệu cao cấp mang lại cảm giác thoải mái khi đi lên chân.</t>
-  </si>
-  <si>
     <t>11500000</t>
   </si>
   <si>
     <t>1300000</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1079000</t>
-  </si>
-  <si>
-    <t>2023-11-27</t>
-  </si>
-  <si>
-    <t>SP60</t>
-  </si>
-  <si>
-    <t>Giày Balenciaga Speed Sneaker Màu Đen</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>Đế kếp</t>
-  </si>
-  <si>
-    <t>Giày thể thao</t>
-  </si>
-  <si>
-    <t>12000000</t>
-  </si>
-  <si>
-    <t>13000000</t>
-  </si>
-  <si>
-    <t>10400000</t>
-  </si>
-  <si>
-    <t>SP59</t>
-  </si>
-  <si>
-    <t>SP58</t>
-  </si>
-  <si>
-    <t>SP57</t>
-  </si>
-  <si>
-    <t>SP56</t>
   </si>
   <si>
     <t>SP55</t>
@@ -953,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1132,13 +1120,13 @@
         <v>39</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>20</v>
@@ -1153,22 +1141,22 @@
         <v>23</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>30</v>
@@ -1179,46 +1167,46 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>23</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s" s="0">
         <v>30</v>
@@ -1229,13 +1217,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>33</v>
@@ -1250,28 +1238,28 @@
         <v>22</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="P6" t="s" s="0">
         <v>28</v>
@@ -1279,16 +1267,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>20</v>
@@ -1300,28 +1288,28 @@
         <v>22</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>28</v>
@@ -1329,46 +1317,46 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M8" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s" s="0">
         <v>30</v>
@@ -1379,46 +1367,46 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="O9" t="s" s="0">
         <v>30</v>
@@ -1429,49 +1417,49 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>21</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s" s="0">
         <v>28</v>
@@ -1479,49 +1467,49 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="P11" t="s" s="0">
         <v>28</v>
@@ -1529,46 +1517,46 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>55</v>
-      </c>
       <c r="D12" t="s" s="0">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N12" t="s" s="0">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s" s="0">
         <v>30</v>
@@ -1579,46 +1567,46 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M13" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N13" t="s" s="0">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="O13" t="s" s="0">
         <v>30</v>
@@ -1629,49 +1617,49 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M14" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N14" t="s" s="0">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="P14" t="s" s="0">
         <v>28</v>
@@ -1679,46 +1667,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M15" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N15" t="s" s="0">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s" s="0">
         <v>30</v>
@@ -1729,46 +1717,46 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M16" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N16" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s" s="0">
         <v>30</v>
@@ -1779,99 +1767,99 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="D17" t="s" s="0">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N17" t="s" s="0">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="P17" t="s" s="0">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="M18" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N18" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="P18" t="s" s="0">
         <v>28</v>
@@ -1879,49 +1867,49 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N19" t="s" s="0">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O19" t="s" s="0">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="P19" t="s" s="0">
         <v>28</v>
@@ -1929,46 +1917,46 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N20" t="s" s="0">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O20" t="s" s="0">
         <v>30</v>
@@ -1979,37 +1967,37 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L21" t="s" s="0">
         <v>86</v>
@@ -2018,60 +2006,60 @@
         <v>28</v>
       </c>
       <c r="N21" t="s" s="0">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O21" t="s" s="0">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="P21" t="s" s="0">
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s" s="0">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="M22" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N22" t="s" s="0">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="O22" t="s" s="0">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="P22" t="s" s="0">
         <v>28</v>
@@ -2079,49 +2067,49 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>121</v>
-      </c>
       <c r="I23" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="L23" t="s" s="0">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N23" t="s" s="0">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O23" t="s" s="0">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="P23" t="s" s="0">
         <v>28</v>
@@ -2129,46 +2117,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="0">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="M24" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N24" t="s" s="0">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O24" t="s" s="0">
         <v>30</v>
@@ -2179,16 +2167,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>20</v>
@@ -2197,28 +2185,28 @@
         <v>34</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="0">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="M25" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N25" t="s" s="0">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="O25" t="s" s="0">
         <v>30</v>
@@ -2229,49 +2217,49 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="L26" t="s" s="0">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M26" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N26" t="s" s="0">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="O26" t="s" s="0">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="P26" t="s" s="0">
         <v>28</v>
@@ -2279,13 +2267,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>19</v>
@@ -2294,34 +2282,34 @@
         <v>20</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="J27" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="0">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M27" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N27" t="s" s="0">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="O27" t="s" s="0">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="P27" t="s" s="0">
         <v>28</v>
@@ -2329,46 +2317,46 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J28" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="L28" t="s" s="0">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="M28" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N28" t="s" s="0">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O28" t="s" s="0">
         <v>30</v>
@@ -2379,19 +2367,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s" s="0">
         <v>21</v>
@@ -2400,25 +2388,25 @@
         <v>22</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J29" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="L29" t="s" s="0">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="M29" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N29" t="s" s="0">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="O29" t="s" s="0">
         <v>30</v>
@@ -2429,49 +2417,49 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J30" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="L30" t="s" s="0">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="M30" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N30" t="s" s="0">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="O30" t="s" s="0">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="P30" t="s" s="0">
         <v>28</v>
@@ -2479,49 +2467,49 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="J31" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="L31" t="s" s="0">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="M31" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N31" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O31" t="s" s="0">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="P31" t="s" s="0">
         <v>28</v>
@@ -2529,28 +2517,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="C32" t="s" s="0">
-        <v>138</v>
-      </c>
       <c r="D32" t="s" s="0">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="I32" t="s" s="0">
         <v>24</v>
@@ -2559,19 +2547,19 @@
         <v>25</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="L32" t="s" s="0">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="M32" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N32" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="O32" t="s" s="0">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="P32" t="s" s="0">
         <v>28</v>
@@ -2579,46 +2567,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="L33" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="M33" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N33" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="L33" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="M33" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N33" t="s" s="0">
-        <v>94</v>
       </c>
       <c r="O33" t="s" s="0">
         <v>30</v>
@@ -2629,46 +2617,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="L34" t="s" s="0">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="M34" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N34" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="O34" t="s" s="0">
         <v>30</v>
@@ -2679,46 +2667,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="L35" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M35" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N35" t="s" s="0">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O35" t="s" s="0">
         <v>30</v>
@@ -2729,49 +2717,49 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="J36" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s" s="0">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="M36" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N36" t="s" s="0">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="O36" t="s" s="0">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="P36" t="s" s="0">
         <v>28</v>
@@ -2779,46 +2767,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="K37" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L37" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M37" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N37" t="s" s="0">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="O37" t="s" s="0">
         <v>30</v>
@@ -2829,99 +2817,99 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s" s="0">
         <v>33</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s" s="0">
         <v>35</v>
       </c>
       <c r="J38" t="s" s="0">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="L38" t="s" s="0">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N38" t="s" s="0">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="O38" t="s" s="0">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="P38" t="s" s="0">
-        <v>28</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s" s="0">
         <v>33</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L39" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M39" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N39" t="s" s="0">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="O39" t="s" s="0">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="P39" t="s" s="0">
         <v>28</v>
@@ -2929,46 +2917,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="I40" t="s" s="0">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="0">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="L40" t="s" s="0">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="M40" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N40" t="s" s="0">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="O40" t="s" s="0">
         <v>30</v>
@@ -2979,46 +2967,46 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L41" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M41" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N41" t="s" s="0">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="O41" t="s" s="0">
         <v>30</v>
@@ -3029,90 +3017,90 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D42" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="J42" t="s" s="0">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L42" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M42" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N42" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O42" t="s" s="0">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P42" t="s" s="0">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D43" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L43" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M43" t="s" s="0">
         <v>28</v>
@@ -3121,7 +3109,7 @@
         <v>98</v>
       </c>
       <c r="O43" t="s" s="0">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="P43" t="s" s="0">
         <v>28</v>
@@ -3129,49 +3117,49 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D44" t="s" s="0">
         <v>33</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G44" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I44" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="0">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="L44" t="s" s="0">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="M44" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N44" t="s" s="0">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="O44" t="s" s="0">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="P44" t="s" s="0">
         <v>28</v>
@@ -3179,46 +3167,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="L45" t="s" s="0">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="M45" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N45" t="s" s="0">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="O45" t="s" s="0">
         <v>30</v>
@@ -3229,99 +3217,99 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="K46" t="s" s="0">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="L46" t="s" s="0">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="M46" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N46" t="s" s="0">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="O46" t="s" s="0">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P46" t="s" s="0">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="C47" t="s" s="0">
         <v>206</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>207</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>197</v>
       </c>
       <c r="D47" t="s" s="0">
         <v>33</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="L47" t="s" s="0">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="M47" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N47" t="s" s="0">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="O47" t="s" s="0">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="P47" t="s" s="0">
         <v>28</v>
@@ -3329,49 +3317,49 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s" s="0">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="M48" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N48" t="s" s="0">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="O48" t="s" s="0">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="P48" t="s" s="0">
         <v>28</v>
@@ -3379,46 +3367,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J49" t="s" s="0">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="K49" t="s" s="0">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="L49" t="s" s="0">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M49" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N49" t="s" s="0">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O49" t="s" s="0">
         <v>30</v>
@@ -3429,99 +3417,99 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="F50" t="s" s="0">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="L50" t="s" s="0">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="M50" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N50" t="s" s="0">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="O50" t="s" s="0">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="P50" t="s" s="0">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="G51" t="s" s="0">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="J51" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="K51" t="s" s="0">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="L51" t="s" s="0">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="M51" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N51" t="s" s="0">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="O51" t="s" s="0">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="P51" t="s" s="0">
         <v>28</v>
@@ -3529,49 +3517,49 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="D52" t="s" s="0">
         <v>33</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I52" t="s" s="0">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K52" t="s" s="0">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="L52" t="s" s="0">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="M52" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N52" t="s" s="0">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="O52" t="s" s="0">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="P52" t="s" s="0">
         <v>28</v>
@@ -3579,49 +3567,49 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B53" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="K53" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="C53" t="s" s="0">
-        <v>242</v>
-      </c>
-      <c r="D53" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="E53" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="F53" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G53" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="H53" t="s" s="0">
-        <v>243</v>
-      </c>
-      <c r="I53" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="J53" t="s" s="0">
-        <v>244</v>
-      </c>
-      <c r="K53" t="s" s="0">
+      <c r="L53" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="M53" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N53" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="L53" t="s" s="0">
-        <v>245</v>
-      </c>
-      <c r="M53" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N53" t="s" s="0">
-        <v>246</v>
-      </c>
       <c r="O53" t="s" s="0">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="P53" t="s" s="0">
         <v>28</v>
@@ -3629,149 +3617,149 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s" s="0">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="K54" t="s" s="0">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="L54" t="s" s="0">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="M54" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N54" t="s" s="0">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="O54" t="s" s="0">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="P54" t="s" s="0">
-        <v>254</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="J55" t="s" s="0">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="K55" t="s" s="0">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="L55" t="s" s="0">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="M55" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N55" t="s" s="0">
-        <v>164</v>
+        <v>274</v>
       </c>
       <c r="O55" t="s" s="0">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="P55" t="s" s="0">
-        <v>28</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G56" t="s" s="0">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="I56" t="s" s="0">
         <v>35</v>
       </c>
       <c r="J56" t="s" s="0">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="K56" t="s" s="0">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="L56" t="s" s="0">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="M56" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N56" t="s" s="0">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="O56" t="s" s="0">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P56" t="s" s="0">
         <v>28</v>
@@ -3779,49 +3767,49 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="F57" t="s" s="0">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G57" t="s" s="0">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="I57" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J57" t="s" s="0">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="K57" t="s" s="0">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="L57" t="s" s="0">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="M57" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N57" t="s" s="0">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="O57" t="s" s="0">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P57" t="s" s="0">
         <v>28</v>
@@ -3829,251 +3817,51 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s" s="0">
-        <v>34</v>
+        <v>289</v>
       </c>
       <c r="G58" t="s" s="0">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I58" t="s" s="0">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="J58" t="s" s="0">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="K58" t="s" s="0">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="L58" t="s" s="0">
-        <v>273</v>
+        <v>47</v>
       </c>
       <c r="M58" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N58" t="s" s="0">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="O58" t="s" s="0">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="P58" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>275</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>276</v>
-      </c>
-      <c r="C59" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="D59" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="E59" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="F59" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G59" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="H59" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="I59" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="J59" t="s" s="0">
-        <v>277</v>
-      </c>
-      <c r="K59" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="L59" t="s" s="0">
-        <v>273</v>
-      </c>
-      <c r="M59" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N59" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="O59" t="s" s="0">
-        <v>279</v>
-      </c>
-      <c r="P59" t="s" s="0">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>280</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>281</v>
-      </c>
-      <c r="C60" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="D60" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E60" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="F60" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G60" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="H60" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="I60" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="J60" t="s" s="0">
-        <v>282</v>
-      </c>
-      <c r="K60" t="s" s="0">
-        <v>283</v>
-      </c>
-      <c r="L60" t="s" s="0">
-        <v>284</v>
-      </c>
-      <c r="M60" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N60" t="s" s="0">
-        <v>285</v>
-      </c>
-      <c r="O60" t="s" s="0">
-        <v>253</v>
-      </c>
-      <c r="P60" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="0">
-        <v>286</v>
-      </c>
-      <c r="B61" t="s" s="0">
-        <v>287</v>
-      </c>
-      <c r="C61" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="D61" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="E61" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="F61" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="G61" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="I61" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="J61" t="s" s="0">
-        <v>288</v>
-      </c>
-      <c r="K61" t="s" s="0">
-        <v>283</v>
-      </c>
-      <c r="L61" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="M61" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N61" t="s" s="0">
-        <v>290</v>
-      </c>
-      <c r="O61" t="s" s="0">
-        <v>253</v>
-      </c>
-      <c r="P61" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
-        <v>291</v>
-      </c>
-      <c r="B62" t="s" s="0">
-        <v>292</v>
-      </c>
-      <c r="C62" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="D62" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E62" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="F62" t="s" s="0">
-        <v>293</v>
-      </c>
-      <c r="G62" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="I62" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="J62" t="s" s="0">
-        <v>294</v>
-      </c>
-      <c r="K62" t="s" s="0">
-        <v>295</v>
-      </c>
-      <c r="L62" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="M62" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N62" t="s" s="0">
-        <v>296</v>
-      </c>
-      <c r="O62" t="s" s="0">
-        <v>253</v>
-      </c>
-      <c r="P62" t="s" s="0">
         <v>28</v>
       </c>
     </row>

--- a/DATNFE/src/main/resources/excel/export.xlsx
+++ b/DATNFE/src/main/resources/excel/export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="297">
   <si>
     <t>Mã</t>
   </si>
@@ -62,75 +62,111 @@
     <t>Độ hot</t>
   </si>
   <si>
+    <t>SP59</t>
+  </si>
+  <si>
+    <t>Giày Cao Gót Balenciaga Black BB Pumps Velvet</t>
+  </si>
+  <si>
+    <t>Calvin Klein</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Vải lưới</t>
+  </si>
+  <si>
+    <t>Đế giày Christy Wedge</t>
+  </si>
+  <si>
+    <t>Vàng Hồng</t>
+  </si>
+  <si>
+    <t>Nhật Bản</t>
+  </si>
+  <si>
+    <t>Giày Lười</t>
+  </si>
+  <si>
+    <t>Đôi giày được làm từ chất liệu cao cấp mang lại cảm giác thoải mái khi đi lên chân.</t>
+  </si>
+  <si>
+    <t>11500000</t>
+  </si>
+  <si>
+    <t>1300000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1079000</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>SP58</t>
+  </si>
+  <si>
+    <t>Giày Balenciaga Speed Sneaker Màu Đen</t>
+  </si>
+  <si>
+    <t>Gucci</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Da tổng hợp</t>
+  </si>
+  <si>
+    <t>Đế kếp</t>
+  </si>
+  <si>
+    <t>Trắng</t>
+  </si>
+  <si>
+    <t>Ý</t>
+  </si>
+  <si>
+    <t>Giày thể thao</t>
+  </si>
+  <si>
+    <t>12000000</t>
+  </si>
+  <si>
+    <t>13000000</t>
+  </si>
+  <si>
+    <t>10400000</t>
+  </si>
+  <si>
     <t>SP57</t>
   </si>
   <si>
-    <t>Giày Balenciaga Speed Sneaker Màu Đen</t>
-  </si>
-  <si>
     <t>Balenciaga</t>
   </si>
   <si>
-    <t>Nam</t>
-  </si>
-  <si>
     <t>Da cao cấp</t>
   </si>
   <si>
-    <t>Đế kếp</t>
-  </si>
-  <si>
     <t>Đen</t>
   </si>
   <si>
     <t>Tây Ban Nha</t>
   </si>
   <si>
-    <t>Giày thể thao</t>
-  </si>
-  <si>
-    <t>Đôi giày được làm từ chất liệu cao cấp mang lại cảm giác thoải mái khi đi lên chân.</t>
-  </si>
-  <si>
-    <t>12000000</t>
-  </si>
-  <si>
-    <t>13000000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10400000</t>
-  </si>
-  <si>
-    <t>2023-11-27</t>
-  </si>
-  <si>
     <t>SP56</t>
   </si>
   <si>
-    <t>Giày Cao Gót Balenciaga Black BB Pumps Velvet</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
     <t>Đế da</t>
   </si>
   <si>
     <t>Giày cao gót</t>
   </si>
   <si>
-    <t>11500000</t>
-  </si>
-  <si>
-    <t>1300000</t>
-  </si>
-  <si>
-    <t>1079000</t>
-  </si>
-  <si>
     <t>SP55</t>
   </si>
   <si>
@@ -146,12 +182,6 @@
     <t>Giày Sục Nam Balenciaga Slipper Cosy Black Leather Logo BB</t>
   </si>
   <si>
-    <t>Trắng</t>
-  </si>
-  <si>
-    <t>Giày Lười</t>
-  </si>
-  <si>
     <t>12500000</t>
   </si>
   <si>
@@ -254,9 +284,6 @@
     <t>Giày Thể Thao Adidas Grand Court F36392/F36483/GW6511</t>
   </si>
   <si>
-    <t>Da tổng hợp</t>
-  </si>
-  <si>
     <t>1500000</t>
   </si>
   <si>
@@ -362,9 +389,6 @@
     <t>Nike</t>
   </si>
   <si>
-    <t>Vàng Hồng</t>
-  </si>
-  <si>
     <t>Mỹ</t>
   </si>
   <si>
@@ -377,9 +401,6 @@
     <t>Giày Thể Thao Nike Downshifter 11 Road Running Shoes</t>
   </si>
   <si>
-    <t>Vải lưới</t>
-  </si>
-  <si>
     <t>SP38</t>
   </si>
   <si>
@@ -422,9 +443,6 @@
     <t>Bạc</t>
   </si>
   <si>
-    <t>Ý</t>
-  </si>
-  <si>
     <t>7470000</t>
   </si>
   <si>
@@ -593,9 +611,6 @@
     <t>Giày Lười Nữ Calvin Klein CK Womens Lacy Flats</t>
   </si>
   <si>
-    <t>Calvin Klein</t>
-  </si>
-  <si>
     <t>Thiết kế giày đơn giản, trẻ trung cùng chất liệu cao cấp, mang lại vẻ đẹp sang trọng và thoải mái cho người dùng.</t>
   </si>
   <si>
@@ -630,9 +645,6 @@
   </si>
   <si>
     <t>Giày Lười Nữ Gucci Leather Espadrille With Double G</t>
-  </si>
-  <si>
-    <t>Gucci</t>
   </si>
   <si>
     <t>là đôi giày cao cấp dành cho nữ đến từ thương hiệu Gucci nổi tiếng. Mẫu giày với thiết kế gam màu trẻ trung, sang trọng nên được các cô gái yêu thích và săn đón.</t>
@@ -941,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -952,7 +964,7 @@
     <col min="3" max="3" width="14.69140625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.37890625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.89453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.94140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="9.84765625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="10.93359375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.71875" customWidth="true" bestFit="true"/>
@@ -1073,40 +1085,40 @@
         <v>32</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s" s="0">
         <v>30</v>
@@ -1117,46 +1129,46 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>35</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>30</v>
@@ -1167,46 +1179,46 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="O5" t="s" s="0">
         <v>30</v>
@@ -1217,49 +1229,49 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s" s="0">
         <v>50</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>45</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="M6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N6" t="s" s="0">
-        <v>55</v>
-      </c>
       <c r="O6" t="s" s="0">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s" s="0">
         <v>28</v>
@@ -1267,49 +1279,49 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>28</v>
@@ -1317,49 +1329,49 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>52</v>
-      </c>
       <c r="I8" t="s" s="0">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M8" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="P8" t="s" s="0">
         <v>28</v>
@@ -1367,28 +1379,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>24</v>
@@ -1397,19 +1409,19 @@
         <v>25</v>
       </c>
       <c r="K9" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="O9" t="s" s="0">
         <v>71</v>
-      </c>
-      <c r="M9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="O9" t="s" s="0">
-        <v>30</v>
       </c>
       <c r="P9" t="s" s="0">
         <v>28</v>
@@ -1417,28 +1429,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>74</v>
-      </c>
       <c r="C10" t="s" s="0">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>24</v>
@@ -1447,16 +1459,16 @@
         <v>25</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O10" t="s" s="0">
         <v>30</v>
@@ -1467,46 +1479,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="E11" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>69</v>
-      </c>
       <c r="I11" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K11" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="L11" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="L11" t="s" s="0">
+      <c r="M11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N11" t="s" s="0">
         <v>82</v>
-      </c>
-      <c r="M11" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N11" t="s" s="0">
-        <v>83</v>
       </c>
       <c r="O11" t="s" s="0">
         <v>30</v>
@@ -1517,40 +1529,40 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="C12" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>20</v>
-      </c>
       <c r="F12" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K12" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="L12" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="L12" t="s" s="0">
-        <v>86</v>
       </c>
       <c r="M12" t="s" s="0">
         <v>28</v>
@@ -1573,40 +1585,40 @@
         <v>89</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="M13" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N13" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O13" t="s" s="0">
         <v>30</v>
@@ -1617,49 +1629,49 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="M14" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N14" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P14" t="s" s="0">
         <v>28</v>
@@ -1667,46 +1679,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M15" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N15" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O15" t="s" s="0">
         <v>30</v>
@@ -1717,49 +1729,49 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N16" t="s" s="0">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="P16" t="s" s="0">
         <v>28</v>
@@ -1767,52 +1779,52 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>93</v>
-      </c>
       <c r="D17" t="s" s="0">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M17" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N17" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="P17" t="s" s="0">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -1823,43 +1835,43 @@
         <v>109</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M18" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N18" t="s" s="0">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="P18" t="s" s="0">
         <v>28</v>
@@ -1867,99 +1879,99 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>104</v>
-      </c>
       <c r="F19" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s" s="0">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M19" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N19" t="s" s="0">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O19" t="s" s="0">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P19" t="s" s="0">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="M20" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N20" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O20" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="P20" t="s" s="0">
         <v>28</v>
@@ -1973,43 +1985,43 @@
         <v>123</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s" s="0">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="M21" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N21" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="P21" t="s" s="0">
         <v>28</v>
@@ -2017,46 +2029,46 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L22" t="s" s="0">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="M22" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N22" t="s" s="0">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="O22" t="s" s="0">
         <v>30</v>
@@ -2067,40 +2079,40 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s" s="0">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="M23" t="s" s="0">
         <v>28</v>
@@ -2123,40 +2135,40 @@
         <v>133</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s" s="0">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="M24" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N24" t="s" s="0">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="O24" t="s" s="0">
         <v>30</v>
@@ -2167,46 +2179,46 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s" s="0">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M25" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N25" t="s" s="0">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O25" t="s" s="0">
         <v>30</v>
@@ -2217,49 +2229,49 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="D26" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="C26" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s" s="0">
-        <v>22</v>
-      </c>
       <c r="H26" t="s" s="0">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K26" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="M26" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N26" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="L26" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="M26" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N26" t="s" s="0">
-        <v>145</v>
-      </c>
       <c r="O26" t="s" s="0">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="P26" t="s" s="0">
         <v>28</v>
@@ -2267,49 +2279,49 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M27" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N27" t="s" s="0">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O27" t="s" s="0">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="P27" t="s" s="0">
         <v>28</v>
@@ -2317,49 +2329,49 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="0">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N28" t="s" s="0">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O28" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="P28" t="s" s="0">
         <v>28</v>
@@ -2367,49 +2379,49 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="J29" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="L29" t="s" s="0">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="M29" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N29" t="s" s="0">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="O29" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="P29" t="s" s="0">
         <v>28</v>
@@ -2423,40 +2435,40 @@
         <v>158</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L30" t="s" s="0">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="M30" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N30" t="s" s="0">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O30" t="s" s="0">
         <v>30</v>
@@ -2467,46 +2479,46 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="C31" t="s" s="0">
         <v>162</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>156</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L31" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M31" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N31" t="s" s="0">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="O31" t="s" s="0">
         <v>30</v>
@@ -2523,43 +2535,43 @@
         <v>164</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L32" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M32" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N32" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O32" t="s" s="0">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="P32" t="s" s="0">
         <v>28</v>
@@ -2567,46 +2579,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L33" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M33" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N33" t="s" s="0">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="O33" t="s" s="0">
         <v>30</v>
@@ -2617,49 +2629,49 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="C34" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L34" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="M34" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N34" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="C34" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="D34" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="H34" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="I34" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="J34" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="K34" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="L34" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="M34" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N34" t="s" s="0">
-        <v>176</v>
-      </c>
       <c r="O34" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="P34" t="s" s="0">
         <v>28</v>
@@ -2667,46 +2679,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="I35" t="s" s="0">
         <v>24</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L35" t="s" s="0">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M35" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N35" t="s" s="0">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="O35" t="s" s="0">
         <v>30</v>
@@ -2717,46 +2729,46 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="K36" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="L36" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C36" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="D36" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E36" t="s" s="0">
+      <c r="M36" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N36" t="s" s="0">
         <v>182</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="I36" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="J36" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="K36" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="L36" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="M36" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N36" t="s" s="0">
-        <v>150</v>
       </c>
       <c r="O36" t="s" s="0">
         <v>30</v>
@@ -2767,46 +2779,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="K37" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="L37" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="M37" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N37" t="s" s="0">
         <v>185</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="E37" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="H37" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="I37" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="J37" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="K37" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="L37" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="M37" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N37" t="s" s="0">
-        <v>165</v>
       </c>
       <c r="O37" t="s" s="0">
         <v>30</v>
@@ -2817,99 +2829,99 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="C38" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C38" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>20</v>
-      </c>
       <c r="F38" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="J38" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="L38" t="s" s="0">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N38" t="s" s="0">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="O38" t="s" s="0">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="P38" t="s" s="0">
-        <v>190</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="C39" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="J39" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="C39" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="D39" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E39" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="H39" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="I39" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="J39" t="s" s="0">
-        <v>194</v>
-      </c>
       <c r="K39" t="s" s="0">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L39" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M39" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N39" t="s" s="0">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="O39" t="s" s="0">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="P39" t="s" s="0">
         <v>28</v>
@@ -2917,52 +2929,52 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="K40" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L40" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="M40" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N40" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="O40" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="P40" t="s" s="0">
         <v>196</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="I40" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="J40" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="K40" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="L40" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="M40" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N40" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="O40" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="P40" t="s" s="0">
-        <v>28</v>
       </c>
     </row>
     <row r="41">
@@ -2970,46 +2982,46 @@
         <v>197</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J41" t="s" s="0">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L41" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M41" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N41" t="s" s="0">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="O41" t="s" s="0">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="P41" t="s" s="0">
         <v>28</v>
@@ -3017,52 +3029,52 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E42" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="K42" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L42" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="F42" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H42" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="I42" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="J42" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="K42" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="L42" t="s" s="0">
-        <v>70</v>
-      </c>
       <c r="M42" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N42" t="s" s="0">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="O42" t="s" s="0">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="P42" t="s" s="0">
-        <v>201</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
@@ -3070,46 +3082,46 @@
         <v>202</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E43" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L43" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="F43" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="H43" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="I43" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="J43" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="K43" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="L43" t="s" s="0">
-        <v>70</v>
-      </c>
       <c r="M43" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N43" t="s" s="0">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="O43" t="s" s="0">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="P43" t="s" s="0">
         <v>28</v>
@@ -3117,99 +3129,99 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="C44" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="J44" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="C44" t="s" s="0">
+      <c r="K44" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L44" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="M44" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N44" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="O44" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="P44" t="s" s="0">
         <v>206</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E44" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="F44" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="I44" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="J44" t="s" s="0">
-        <v>207</v>
-      </c>
-      <c r="K44" t="s" s="0">
-        <v>208</v>
-      </c>
-      <c r="L44" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="M44" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N44" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="O44" t="s" s="0">
-        <v>210</v>
-      </c>
-      <c r="P44" t="s" s="0">
-        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="0">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="M45" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N45" t="s" s="0">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="O45" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="P45" t="s" s="0">
         <v>28</v>
@@ -3217,96 +3229,96 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E46" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="K46" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="L46" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="M46" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N46" t="s" s="0">
         <v>213</v>
       </c>
-      <c r="F46" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="H46" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="I46" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="J46" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="K46" t="s" s="0">
-        <v>221</v>
-      </c>
-      <c r="L46" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="M46" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N46" t="s" s="0">
-        <v>222</v>
-      </c>
       <c r="O46" t="s" s="0">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="P46" t="s" s="0">
-        <v>224</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="L47" t="s" s="0">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M47" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N47" t="s" s="0">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O47" t="s" s="0">
         <v>30</v>
@@ -3317,96 +3329,96 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="L48" t="s" s="0">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="M48" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N48" t="s" s="0">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O48" t="s" s="0">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="P48" t="s" s="0">
-        <v>28</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J49" t="s" s="0">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K49" t="s" s="0">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s" s="0">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M49" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N49" t="s" s="0">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O49" t="s" s="0">
         <v>30</v>
@@ -3417,99 +3429,99 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s" s="0">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s" s="0">
         <v>24</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="L50" t="s" s="0">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M50" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N50" t="s" s="0">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="O50" t="s" s="0">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="P50" t="s" s="0">
-        <v>250</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="J51" t="s" s="0">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="K51" t="s" s="0">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="L51" t="s" s="0">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="M51" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N51" t="s" s="0">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="O51" t="s" s="0">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="P51" t="s" s="0">
         <v>28</v>
@@ -3517,99 +3529,99 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="K52" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="F52" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="H52" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="I52" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="J52" t="s" s="0">
-        <v>257</v>
-      </c>
-      <c r="K52" t="s" s="0">
-        <v>258</v>
-      </c>
       <c r="L52" t="s" s="0">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M52" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N52" t="s" s="0">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="O52" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P52" t="s" s="0">
-        <v>28</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="K53" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="L53" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="M53" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N53" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="O53" t="s" s="0">
         <v>253</v>
-      </c>
-      <c r="G53" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H53" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="I53" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="J53" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="K53" t="s" s="0">
-        <v>241</v>
-      </c>
-      <c r="L53" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="M53" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N53" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="O53" t="s" s="0">
-        <v>249</v>
       </c>
       <c r="P53" t="s" s="0">
         <v>28</v>
@@ -3617,49 +3629,49 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s" s="0">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K54" t="s" s="0">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="L54" t="s" s="0">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M54" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N54" t="s" s="0">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O54" t="s" s="0">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="P54" t="s" s="0">
         <v>28</v>
@@ -3667,99 +3679,99 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="G55" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="D55" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="E55" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="F55" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s" s="0">
-        <v>44</v>
-      </c>
       <c r="H55" t="s" s="0">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J55" t="s" s="0">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K55" t="s" s="0">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="L55" t="s" s="0">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="M55" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N55" t="s" s="0">
-        <v>274</v>
+        <v>99</v>
       </c>
       <c r="O55" t="s" s="0">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="P55" t="s" s="0">
-        <v>190</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="K56" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="L56" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="M56" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N56" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="O56" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="F56" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="H56" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="I56" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="J56" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="K56" t="s" s="0">
-        <v>279</v>
-      </c>
-      <c r="L56" t="s" s="0">
-        <v>280</v>
-      </c>
-      <c r="M56" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N56" t="s" s="0">
-        <v>281</v>
-      </c>
-      <c r="O56" t="s" s="0">
-        <v>249</v>
       </c>
       <c r="P56" t="s" s="0">
         <v>28</v>
@@ -3767,101 +3779,201 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s" s="0">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I57" t="s" s="0">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="J57" t="s" s="0">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K57" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="L57" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="M57" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N57" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="O57" t="s" s="0">
         <v>279</v>
       </c>
-      <c r="L57" t="s" s="0">
-        <v>285</v>
-      </c>
-      <c r="M57" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N57" t="s" s="0">
-        <v>286</v>
-      </c>
-      <c r="O57" t="s" s="0">
-        <v>249</v>
-      </c>
       <c r="P57" t="s" s="0">
-        <v>28</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s" s="0">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I58" t="s" s="0">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="J58" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="K58" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="L58" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="M58" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N58" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="O58" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="P58" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="K59" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="L59" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="M59" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N59" t="s" s="0">
         <v>290</v>
       </c>
-      <c r="K58" t="s" s="0">
+      <c r="O59" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="P59" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
         <v>291</v>
       </c>
-      <c r="L58" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="M58" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N58" t="s" s="0">
+      <c r="B60" t="s" s="0">
         <v>292</v>
       </c>
-      <c r="O58" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="P58" t="s" s="0">
+      <c r="C60" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I60" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="K60" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="L60" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="M60" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N60" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="O60" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="P60" t="s" s="0">
         <v>28</v>
       </c>
     </row>

--- a/DATNFE/src/main/resources/excel/export.xlsx
+++ b/DATNFE/src/main/resources/excel/export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="288">
   <si>
     <t>Mã</t>
   </si>
@@ -62,591 +62,570 @@
     <t>Độ hot</t>
   </si>
   <si>
-    <t>SP59</t>
+    <t>SP57</t>
+  </si>
+  <si>
+    <t>Giày Balenciaga Speed Sneaker Màu Đen</t>
+  </si>
+  <si>
+    <t>Balenciaga</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Da cao cấp</t>
+  </si>
+  <si>
+    <t>Đế kếp</t>
+  </si>
+  <si>
+    <t>Đen</t>
+  </si>
+  <si>
+    <t>Tây Ban Nha</t>
+  </si>
+  <si>
+    <t>Giày thể thao</t>
+  </si>
+  <si>
+    <t>Đôi giày được làm từ chất liệu cao cấp mang lại cảm giác thoải mái khi đi lên chân.</t>
+  </si>
+  <si>
+    <t>12000000</t>
+  </si>
+  <si>
+    <t>13000000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10400000</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>SP56</t>
   </si>
   <si>
     <t>Giày Cao Gót Balenciaga Black BB Pumps Velvet</t>
   </si>
   <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Đế da</t>
+  </si>
+  <si>
+    <t>Giày cao gót</t>
+  </si>
+  <si>
+    <t>11500000</t>
+  </si>
+  <si>
+    <t>1300000</t>
+  </si>
+  <si>
+    <t>1079000</t>
+  </si>
+  <si>
+    <t>SP55</t>
+  </si>
+  <si>
+    <t>Giày Sục Nữ Balenciaga Women's Square Knife Bb Leather Mules</t>
+  </si>
+  <si>
+    <t>1105000</t>
+  </si>
+  <si>
+    <t>SP54</t>
+  </si>
+  <si>
+    <t>Giày Sục Nam Balenciaga Slipper Cosy Black Leather Logo BB</t>
+  </si>
+  <si>
+    <t>Trắng</t>
+  </si>
+  <si>
+    <t>Giày Lười</t>
+  </si>
+  <si>
+    <t>12500000</t>
+  </si>
+  <si>
+    <t>15000000</t>
+  </si>
+  <si>
+    <t>13050000</t>
+  </si>
+  <si>
+    <t>SP53</t>
+  </si>
+  <si>
+    <t>Giày Lười Nữ Chanel CC Gold Logo Turn Buckle Design Waxed Lambskin Loafers</t>
+  </si>
+  <si>
+    <t>Chanel</t>
+  </si>
+  <si>
+    <t>Pháp</t>
+  </si>
+  <si>
+    <t>38500000</t>
+  </si>
+  <si>
+    <t>40000000</t>
+  </si>
+  <si>
+    <t>32000000</t>
+  </si>
+  <si>
+    <t>2023-11-26</t>
+  </si>
+  <si>
+    <t>SP52</t>
+  </si>
+  <si>
+    <t>Giày Lười Nữ Chanel CC Gray Patent Loafers</t>
+  </si>
+  <si>
+    <t>35000000</t>
+  </si>
+  <si>
+    <t>36000000</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>SP51</t>
+  </si>
+  <si>
+    <t>Giày Lười Nữ Chanel CC NIB Black Leather Loafers Gold Logo</t>
+  </si>
+  <si>
+    <t>34000000</t>
+  </si>
+  <si>
+    <t>SP50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giày Thể Thao Adidas Samba OG Shoes B75806 </t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>Unisex</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>3500000</t>
+  </si>
+  <si>
+    <t>4500000</t>
+  </si>
+  <si>
+    <t>3735000</t>
+  </si>
+  <si>
+    <t>SP49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giày Thể Thao Adidas Solarboost 5 Shoes GW1962 </t>
+  </si>
+  <si>
+    <t>Vải dệt</t>
+  </si>
+  <si>
+    <t>Xám</t>
+  </si>
+  <si>
+    <t>3600000</t>
+  </si>
+  <si>
+    <t>SP48</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Adidas Grand Court F36392/F36483/GW6511</t>
+  </si>
+  <si>
+    <t>Da tổng hợp</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>1740000</t>
+  </si>
+  <si>
+    <t>SP47</t>
+  </si>
+  <si>
+    <t>iày Thể Thao Adidas Grand Court Cloudfoam Lifestyle Court Comfort</t>
+  </si>
+  <si>
+    <t>2500000</t>
+  </si>
+  <si>
+    <t>2175000</t>
+  </si>
+  <si>
+    <t>SP46</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Nữ Adidas Court Platform H06299</t>
+  </si>
+  <si>
+    <t>2905000</t>
+  </si>
+  <si>
+    <t>SP45</t>
+  </si>
+  <si>
+    <t>Giày Sneaker Unisex Puma RS-X Tracks</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>3150000</t>
+  </si>
+  <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
+    <t>SP44</t>
+  </si>
+  <si>
+    <t>Giày Sneaker Unisex Puma RS-X 3D Harbor Mist</t>
+  </si>
+  <si>
+    <t>2975000</t>
+  </si>
+  <si>
+    <t>SP43</t>
+  </si>
+  <si>
+    <t>Giày Sneaker Nữ Puma RS-X 3D Shoes</t>
+  </si>
+  <si>
+    <t>Đen trắng</t>
+  </si>
+  <si>
+    <t>SP42</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Puma Erupt Trail Running Shoes</t>
+  </si>
+  <si>
+    <t>Vải cao cấp</t>
+  </si>
+  <si>
+    <t>1800000</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>SP41</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Puma Anzarun 2.0 Open Road</t>
+  </si>
+  <si>
+    <t>5500000</t>
+  </si>
+  <si>
+    <t>4785000</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>SP40</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Nữ Nike WMNS Air Zoom Pegasus 37 'Pale Ivory'</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Vàng Hồng</t>
+  </si>
+  <si>
+    <t>Mỹ</t>
+  </si>
+  <si>
+    <t>2125000</t>
+  </si>
+  <si>
+    <t>SP39</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Nike Downshifter 11 Road Running Shoes</t>
+  </si>
+  <si>
+    <t>Vải lưới</t>
+  </si>
+  <si>
+    <t>SP38</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Nike Air Force 1 ’07 ‘White Black’ CT2302-100</t>
+  </si>
+  <si>
+    <t>2075000</t>
+  </si>
+  <si>
+    <t>SP37</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Nike Court Vision Low Next Nature</t>
+  </si>
+  <si>
+    <t>SP36</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Nike Air Jordan 312 Low Tech Grey CD7069-101</t>
+  </si>
+  <si>
+    <t>7500000</t>
+  </si>
+  <si>
+    <t>9000000</t>
+  </si>
+  <si>
+    <t>7200000</t>
+  </si>
+  <si>
+    <t>SP35</t>
+  </si>
+  <si>
+    <t>Giày Slip On Versace DSU8153S</t>
+  </si>
+  <si>
+    <t>Versace</t>
+  </si>
+  <si>
+    <t>Bạc</t>
+  </si>
+  <si>
+    <t>Ý</t>
+  </si>
+  <si>
+    <t>7470000</t>
+  </si>
+  <si>
+    <t>SP34</t>
+  </si>
+  <si>
+    <t>Giày Slip On Nam Versace DSU8140S</t>
+  </si>
+  <si>
+    <t>7830000</t>
+  </si>
+  <si>
+    <t>SP33</t>
+  </si>
+  <si>
+    <t>Giày Lười Nam Versace Medusa Mules</t>
+  </si>
+  <si>
+    <t>17500000</t>
+  </si>
+  <si>
+    <t>20500000</t>
+  </si>
+  <si>
+    <t>17835000</t>
+  </si>
+  <si>
+    <t>SP32</t>
+  </si>
+  <si>
+    <t>Giày Sneaker Nam Versace White With Blue Heel Printed</t>
+  </si>
+  <si>
+    <t>Sneakers</t>
+  </si>
+  <si>
+    <t>9500000</t>
+  </si>
+  <si>
+    <t>8265000</t>
+  </si>
+  <si>
+    <t>SP31</t>
+  </si>
+  <si>
+    <t>Giày Cao Gót Nữ Versace Jeans Couture Multicolour Patterned Stiletto Pumps</t>
+  </si>
+  <si>
+    <t>4565000</t>
+  </si>
+  <si>
+    <t>SP30</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Lacoste L004 Canvas</t>
+  </si>
+  <si>
+    <t>Lacoste</t>
+  </si>
+  <si>
+    <t>SP29</t>
+  </si>
+  <si>
+    <t>Giày Slip On Lacoste Jump Serve Canvas Slip On</t>
+  </si>
+  <si>
+    <t>Xanh navy</t>
+  </si>
+  <si>
+    <t>2800000</t>
+  </si>
+  <si>
+    <t>SP28</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Lacoste L005 222 Màu Trắng - Xanh</t>
+  </si>
+  <si>
+    <t>SP27</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Lacoste Active 4851 2221</t>
+  </si>
+  <si>
+    <t>3045000</t>
+  </si>
+  <si>
+    <t>SP26</t>
+  </si>
+  <si>
+    <t>Giày Lười Nam Lacoste Concours 118 Leather Loafer Shoes</t>
+  </si>
+  <si>
+    <t>Nâu</t>
+  </si>
+  <si>
+    <t>là đôi giày cao cấp đến từ thương hiệu Lacoste nổi tiếng. Với gam màu đen hiện đại cùng kiểu dáng trẻ trung, Lacoste Concours 118 đang là đôi giày HOT được nhiều tín đồ thời trang săn đón.</t>
+  </si>
+  <si>
+    <t>SP25</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Nam Yves Saint Laurent YSL Court Classic</t>
+  </si>
+  <si>
+    <t>YSL</t>
+  </si>
+  <si>
+    <t>Có thiết kế đơn giản, kiểu dáng trẻ trung, hiện đại mang nét đặc trưng của thương hiệu YSL nổi tiếng.</t>
+  </si>
+  <si>
+    <t>10500000</t>
+  </si>
+  <si>
+    <t>14500000</t>
+  </si>
+  <si>
+    <t>12035000</t>
+  </si>
+  <si>
+    <t>SP24</t>
+  </si>
+  <si>
+    <t>Trắng có thiết kế đơn giản, kiểu dáng trẻ trung, hiện đại mang nét đặc trưng của thương hiệu YSL nổi tiếng.</t>
+  </si>
+  <si>
+    <t>3825000</t>
+  </si>
+  <si>
+    <t>SP23</t>
+  </si>
+  <si>
+    <t>Giày Cói Slip On Nữ Yves Saint Laurent YSL Espadrilles In Leather With YSL Monogram</t>
+  </si>
+  <si>
+    <t>Cao su</t>
+  </si>
+  <si>
+    <t>Giày Slip On</t>
+  </si>
+  <si>
+    <t>SP22</t>
+  </si>
+  <si>
+    <t>Giày Sneakers Yves Saint Laurent YSL Court Classic SL/06 Smooth Leather</t>
+  </si>
+  <si>
+    <t>Giày được làm từ chất liệu cao cấp mang đến cảm giác thoải mái cho người sử dụng.</t>
+  </si>
+  <si>
+    <t>SP21</t>
+  </si>
+  <si>
+    <t>Giày Cao Gót Nữ Yves Saint Laurent YSL Opyum Pointed Toe Pumps</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>SP20</t>
+  </si>
+  <si>
+    <t>Giày Lười Nữ Calvin Klein CK Womens Lacy Flats</t>
+  </si>
+  <si>
     <t>Calvin Klein</t>
   </si>
   <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>Vải lưới</t>
-  </si>
-  <si>
-    <t>Đế giày Christy Wedge</t>
-  </si>
-  <si>
-    <t>Vàng Hồng</t>
-  </si>
-  <si>
-    <t>Nhật Bản</t>
-  </si>
-  <si>
-    <t>Giày Lười</t>
-  </si>
-  <si>
-    <t>Đôi giày được làm từ chất liệu cao cấp mang lại cảm giác thoải mái khi đi lên chân.</t>
-  </si>
-  <si>
-    <t>11500000</t>
-  </si>
-  <si>
-    <t>1300000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1079000</t>
-  </si>
-  <si>
-    <t>2023-11-27</t>
-  </si>
-  <si>
-    <t>SP58</t>
-  </si>
-  <si>
-    <t>Giày Balenciaga Speed Sneaker Màu Đen</t>
+    <t>Thiết kế giày đơn giản, trẻ trung cùng chất liệu cao cấp, mang lại vẻ đẹp sang trọng và thoải mái cho người dùng.</t>
+  </si>
+  <si>
+    <t>SP19</t>
+  </si>
+  <si>
+    <t>Giày Lười Nam Calvin Klein CK Ori Driving Style Loafer</t>
+  </si>
+  <si>
+    <t>SP18</t>
+  </si>
+  <si>
+    <t>SP17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giày Sneaker Nam Calvin Klein CK </t>
+  </si>
+  <si>
+    <t>Thiết kế giày C&amp;K đơn giản, trẻ trung cùng chất liệu cao cấp sẽ cho bạn trải nghiệm tuyệt vời khi đi lên chân.</t>
+  </si>
+  <si>
+    <t>SP16</t>
+  </si>
+  <si>
+    <t>Giày Sneaker Nam Calvin Klein CK</t>
+  </si>
+  <si>
+    <t>SP15</t>
+  </si>
+  <si>
+    <t>Giày Lười Nữ Gucci Leather Espadrille With Double G</t>
   </si>
   <si>
     <t>Gucci</t>
   </si>
   <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>Da tổng hợp</t>
-  </si>
-  <si>
-    <t>Đế kếp</t>
-  </si>
-  <si>
-    <t>Trắng</t>
-  </si>
-  <si>
-    <t>Ý</t>
-  </si>
-  <si>
-    <t>Giày thể thao</t>
-  </si>
-  <si>
-    <t>12000000</t>
-  </si>
-  <si>
-    <t>13000000</t>
-  </si>
-  <si>
-    <t>10400000</t>
-  </si>
-  <si>
-    <t>SP57</t>
-  </si>
-  <si>
-    <t>Balenciaga</t>
-  </si>
-  <si>
-    <t>Da cao cấp</t>
-  </si>
-  <si>
-    <t>Đen</t>
-  </si>
-  <si>
-    <t>Tây Ban Nha</t>
-  </si>
-  <si>
-    <t>SP56</t>
-  </si>
-  <si>
-    <t>Đế da</t>
-  </si>
-  <si>
-    <t>Giày cao gót</t>
-  </si>
-  <si>
-    <t>SP55</t>
-  </si>
-  <si>
-    <t>Giày Sục Nữ Balenciaga Women's Square Knife Bb Leather Mules</t>
-  </si>
-  <si>
-    <t>1105000</t>
-  </si>
-  <si>
-    <t>SP54</t>
-  </si>
-  <si>
-    <t>Giày Sục Nam Balenciaga Slipper Cosy Black Leather Logo BB</t>
-  </si>
-  <si>
-    <t>12500000</t>
-  </si>
-  <si>
-    <t>15000000</t>
-  </si>
-  <si>
-    <t>13050000</t>
-  </si>
-  <si>
-    <t>SP53</t>
-  </si>
-  <si>
-    <t>Giày Lười Nữ Chanel CC Gold Logo Turn Buckle Design Waxed Lambskin Loafers</t>
-  </si>
-  <si>
-    <t>Chanel</t>
-  </si>
-  <si>
-    <t>Pháp</t>
-  </si>
-  <si>
-    <t>38500000</t>
-  </si>
-  <si>
-    <t>40000000</t>
-  </si>
-  <si>
-    <t>32000000</t>
-  </si>
-  <si>
-    <t>2023-11-26</t>
-  </si>
-  <si>
-    <t>SP52</t>
-  </si>
-  <si>
-    <t>Giày Lười Nữ Chanel CC Gray Patent Loafers</t>
-  </si>
-  <si>
-    <t>35000000</t>
-  </si>
-  <si>
-    <t>36000000</t>
-  </si>
-  <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
-    <t>SP51</t>
-  </si>
-  <si>
-    <t>Giày Lười Nữ Chanel CC NIB Black Leather Loafers Gold Logo</t>
-  </si>
-  <si>
-    <t>34000000</t>
-  </si>
-  <si>
-    <t>SP50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giày Thể Thao Adidas Samba OG Shoes B75806 </t>
-  </si>
-  <si>
-    <t>Adidas</t>
-  </si>
-  <si>
-    <t>Unisex</t>
-  </si>
-  <si>
-    <t>Đức</t>
-  </si>
-  <si>
-    <t>3500000</t>
-  </si>
-  <si>
-    <t>4500000</t>
-  </si>
-  <si>
-    <t>3735000</t>
-  </si>
-  <si>
-    <t>SP49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giày Thể Thao Adidas Solarboost 5 Shoes GW1962 </t>
-  </si>
-  <si>
-    <t>Vải dệt</t>
-  </si>
-  <si>
-    <t>Xám</t>
-  </si>
-  <si>
-    <t>3600000</t>
-  </si>
-  <si>
-    <t>SP48</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Adidas Grand Court F36392/F36483/GW6511</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>1740000</t>
-  </si>
-  <si>
-    <t>SP47</t>
-  </si>
-  <si>
-    <t>iày Thể Thao Adidas Grand Court Cloudfoam Lifestyle Court Comfort</t>
-  </si>
-  <si>
-    <t>2500000</t>
-  </si>
-  <si>
-    <t>2175000</t>
-  </si>
-  <si>
-    <t>SP46</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Nữ Adidas Court Platform H06299</t>
-  </si>
-  <si>
-    <t>2905000</t>
-  </si>
-  <si>
-    <t>SP45</t>
-  </si>
-  <si>
-    <t>Giày Sneaker Unisex Puma RS-X Tracks</t>
-  </si>
-  <si>
-    <t>Puma</t>
-  </si>
-  <si>
-    <t>3150000</t>
-  </si>
-  <si>
-    <t>2023-11-23</t>
-  </si>
-  <si>
-    <t>SP44</t>
-  </si>
-  <si>
-    <t>Giày Sneaker Unisex Puma RS-X 3D Harbor Mist</t>
-  </si>
-  <si>
-    <t>2975000</t>
-  </si>
-  <si>
-    <t>SP43</t>
-  </si>
-  <si>
-    <t>Giày Sneaker Nữ Puma RS-X 3D Shoes</t>
-  </si>
-  <si>
-    <t>Đen trắng</t>
-  </si>
-  <si>
-    <t>SP42</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Puma Erupt Trail Running Shoes</t>
-  </si>
-  <si>
-    <t>Vải cao cấp</t>
-  </si>
-  <si>
-    <t>1800000</t>
-  </si>
-  <si>
-    <t>2023-11-17</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>SP41</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Puma Anzarun 2.0 Open Road</t>
-  </si>
-  <si>
-    <t>5500000</t>
-  </si>
-  <si>
-    <t>4785000</t>
-  </si>
-  <si>
-    <t>2023-11-28</t>
-  </si>
-  <si>
-    <t>SP40</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Nữ Nike WMNS Air Zoom Pegasus 37 'Pale Ivory'</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>Mỹ</t>
-  </si>
-  <si>
-    <t>2125000</t>
-  </si>
-  <si>
-    <t>SP39</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Nike Downshifter 11 Road Running Shoes</t>
-  </si>
-  <si>
-    <t>SP38</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Nike Air Force 1 ’07 ‘White Black’ CT2302-100</t>
-  </si>
-  <si>
-    <t>2075000</t>
-  </si>
-  <si>
-    <t>SP37</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Nike Court Vision Low Next Nature</t>
-  </si>
-  <si>
-    <t>SP36</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Nike Air Jordan 312 Low Tech Grey CD7069-101</t>
-  </si>
-  <si>
-    <t>7500000</t>
-  </si>
-  <si>
-    <t>9000000</t>
-  </si>
-  <si>
-    <t>7200000</t>
-  </si>
-  <si>
-    <t>SP35</t>
-  </si>
-  <si>
-    <t>Giày Slip On Versace DSU8153S</t>
-  </si>
-  <si>
-    <t>Versace</t>
-  </si>
-  <si>
-    <t>Bạc</t>
-  </si>
-  <si>
-    <t>7470000</t>
-  </si>
-  <si>
-    <t>SP34</t>
-  </si>
-  <si>
-    <t>Giày Slip On Nam Versace DSU8140S</t>
-  </si>
-  <si>
-    <t>7830000</t>
-  </si>
-  <si>
-    <t>SP33</t>
-  </si>
-  <si>
-    <t>Giày Lười Nam Versace Medusa Mules</t>
-  </si>
-  <si>
-    <t>17500000</t>
-  </si>
-  <si>
-    <t>20500000</t>
-  </si>
-  <si>
-    <t>17835000</t>
-  </si>
-  <si>
-    <t>SP32</t>
-  </si>
-  <si>
-    <t>Giày Sneaker Nam Versace White With Blue Heel Printed</t>
-  </si>
-  <si>
-    <t>Sneakers</t>
-  </si>
-  <si>
-    <t>9500000</t>
-  </si>
-  <si>
-    <t>8265000</t>
-  </si>
-  <si>
-    <t>SP31</t>
-  </si>
-  <si>
-    <t>Giày Cao Gót Nữ Versace Jeans Couture Multicolour Patterned Stiletto Pumps</t>
-  </si>
-  <si>
-    <t>4565000</t>
-  </si>
-  <si>
-    <t>SP30</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Lacoste L004 Canvas</t>
-  </si>
-  <si>
-    <t>Lacoste</t>
-  </si>
-  <si>
-    <t>SP29</t>
-  </si>
-  <si>
-    <t>Giày Slip On Lacoste Jump Serve Canvas Slip On</t>
-  </si>
-  <si>
-    <t>Xanh navy</t>
-  </si>
-  <si>
-    <t>2800000</t>
-  </si>
-  <si>
-    <t>SP28</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Lacoste L005 222 Màu Trắng - Xanh</t>
-  </si>
-  <si>
-    <t>SP27</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Lacoste Active 4851 2221</t>
-  </si>
-  <si>
-    <t>3045000</t>
-  </si>
-  <si>
-    <t>SP26</t>
-  </si>
-  <si>
-    <t>Giày Lười Nam Lacoste Concours 118 Leather Loafer Shoes</t>
-  </si>
-  <si>
-    <t>Nâu</t>
-  </si>
-  <si>
-    <t>là đôi giày cao cấp đến từ thương hiệu Lacoste nổi tiếng. Với gam màu đen hiện đại cùng kiểu dáng trẻ trung, Lacoste Concours 118 đang là đôi giày HOT được nhiều tín đồ thời trang săn đón.</t>
-  </si>
-  <si>
-    <t>SP25</t>
-  </si>
-  <si>
-    <t>Giày Thể Thao Nam Yves Saint Laurent YSL Court Classic</t>
-  </si>
-  <si>
-    <t>YSL</t>
-  </si>
-  <si>
-    <t>Có thiết kế đơn giản, kiểu dáng trẻ trung, hiện đại mang nét đặc trưng của thương hiệu YSL nổi tiếng.</t>
-  </si>
-  <si>
-    <t>10500000</t>
-  </si>
-  <si>
-    <t>14500000</t>
-  </si>
-  <si>
-    <t>12035000</t>
-  </si>
-  <si>
-    <t>SP24</t>
-  </si>
-  <si>
-    <t>Trắng có thiết kế đơn giản, kiểu dáng trẻ trung, hiện đại mang nét đặc trưng của thương hiệu YSL nổi tiếng.</t>
-  </si>
-  <si>
-    <t>3825000</t>
-  </si>
-  <si>
-    <t>SP23</t>
-  </si>
-  <si>
-    <t>Giày Cói Slip On Nữ Yves Saint Laurent YSL Espadrilles In Leather With YSL Monogram</t>
-  </si>
-  <si>
-    <t>Cao su</t>
-  </si>
-  <si>
-    <t>Giày Slip On</t>
-  </si>
-  <si>
-    <t>SP22</t>
-  </si>
-  <si>
-    <t>Giày Sneakers Yves Saint Laurent YSL Court Classic SL/06 Smooth Leather</t>
-  </si>
-  <si>
-    <t>Giày được làm từ chất liệu cao cấp mang đến cảm giác thoải mái cho người sử dụng.</t>
-  </si>
-  <si>
-    <t>SP21</t>
-  </si>
-  <si>
-    <t>Giày Cao Gót Nữ Yves Saint Laurent YSL Opyum Pointed Toe Pumps</t>
-  </si>
-  <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>SP20</t>
-  </si>
-  <si>
-    <t>Giày Lười Nữ Calvin Klein CK Womens Lacy Flats</t>
-  </si>
-  <si>
-    <t>Thiết kế giày đơn giản, trẻ trung cùng chất liệu cao cấp, mang lại vẻ đẹp sang trọng và thoải mái cho người dùng.</t>
-  </si>
-  <si>
-    <t>SP19</t>
-  </si>
-  <si>
-    <t>Giày Lười Nam Calvin Klein CK Ori Driving Style Loafer</t>
-  </si>
-  <si>
-    <t>SP18</t>
-  </si>
-  <si>
-    <t>SP17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giày Sneaker Nam Calvin Klein CK </t>
-  </si>
-  <si>
-    <t>Thiết kế giày C&amp;K đơn giản, trẻ trung cùng chất liệu cao cấp sẽ cho bạn trải nghiệm tuyệt vời khi đi lên chân.</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>SP16</t>
-  </si>
-  <si>
-    <t>Giày Sneaker Nam Calvin Klein CK</t>
-  </si>
-  <si>
-    <t>SP15</t>
-  </si>
-  <si>
-    <t>Giày Lười Nữ Gucci Leather Espadrille With Double G</t>
-  </si>
-  <si>
     <t>là đôi giày cao cấp dành cho nữ đến từ thương hiệu Gucci nổi tiếng. Mẫu giày với thiết kế gam màu trẻ trung, sang trọng nên được các cô gái yêu thích và săn đón.</t>
   </si>
   <si>
@@ -698,9 +677,6 @@
     <t>2023-11-13</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>SP12</t>
   </si>
   <si>
@@ -774,9 +750,6 @@
   </si>
   <si>
     <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>SP8</t>
@@ -953,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -964,7 +937,7 @@
     <col min="3" max="3" width="14.69140625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.37890625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.94140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.89453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="9.84765625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="10.93359375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.71875" customWidth="true" bestFit="true"/>
@@ -1085,40 +1058,40 @@
         <v>32</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="G3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s" s="0">
         <v>35</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>39</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s" s="0">
         <v>30</v>
@@ -1129,46 +1102,46 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s" s="0">
         <v>41</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s" s="0">
-        <v>42</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>30</v>
@@ -1179,46 +1152,46 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="H5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>50</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s" s="0">
         <v>30</v>
@@ -1229,49 +1202,49 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="D6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="I6" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>50</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="P6" t="s" s="0">
         <v>28</v>
@@ -1279,49 +1252,49 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>24</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>28</v>
@@ -1329,49 +1302,49 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>24</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="M8" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N8" t="s" s="0">
-        <v>65</v>
-      </c>
       <c r="O8" t="s" s="0">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s" s="0">
         <v>28</v>
@@ -1379,28 +1352,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="D9" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>34</v>
-      </c>
       <c r="E9" t="s" s="0">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>24</v>
@@ -1409,19 +1382,19 @@
         <v>25</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s" s="0">
         <v>28</v>
@@ -1429,28 +1402,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>24</v>
@@ -1459,16 +1432,16 @@
         <v>25</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s" s="0">
         <v>30</v>
@@ -1479,46 +1452,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s" s="0">
         <v>30</v>
@@ -1529,40 +1502,40 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s" s="0">
         <v>28</v>
@@ -1585,40 +1558,40 @@
         <v>89</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K13" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="L13" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="M13" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N13" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="O13" t="s" s="0">
         <v>30</v>
@@ -1629,49 +1602,49 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>77</v>
-      </c>
       <c r="D14" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L14" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N14" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="O14" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="M14" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N14" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="O14" t="s" s="0">
-        <v>30</v>
       </c>
       <c r="P14" t="s" s="0">
         <v>28</v>
@@ -1679,46 +1652,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>98</v>
-      </c>
       <c r="C15" t="s" s="0">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M15" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N15" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s" s="0">
         <v>30</v>
@@ -1729,49 +1702,49 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="C16" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>86</v>
-      </c>
       <c r="H16" t="s" s="0">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M16" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N16" t="s" s="0">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="P16" t="s" s="0">
         <v>28</v>
@@ -1779,49 +1752,49 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N17" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="P17" t="s" s="0">
         <v>28</v>
@@ -1829,49 +1802,49 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>109</v>
-      </c>
       <c r="C18" t="s" s="0">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="M18" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N18" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="P18" t="s" s="0">
         <v>28</v>
@@ -1879,99 +1852,99 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s" s="0">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N19" t="s" s="0">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O19" t="s" s="0">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P19" t="s" s="0">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N20" t="s" s="0">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O20" t="s" s="0">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="P20" t="s" s="0">
         <v>28</v>
@@ -1979,49 +1952,49 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>123</v>
-      </c>
       <c r="C21" t="s" s="0">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L21" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="M21" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N21" t="s" s="0">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O21" t="s" s="0">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="P21" t="s" s="0">
         <v>28</v>
@@ -2029,46 +2002,46 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="M22" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N22" t="s" s="0">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="O22" t="s" s="0">
         <v>30</v>
@@ -2079,46 +2052,46 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s" s="0">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="M23" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N23" t="s" s="0">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O23" t="s" s="0">
         <v>30</v>
@@ -2129,46 +2102,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="C24" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="C24" t="s" s="0">
-        <v>124</v>
-      </c>
       <c r="D24" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I24" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="I24" t="s" s="0">
-        <v>39</v>
       </c>
       <c r="J24" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s" s="0">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="M24" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N24" t="s" s="0">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="O24" t="s" s="0">
         <v>30</v>
@@ -2179,46 +2152,46 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="C25" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s" s="0">
+      <c r="I25" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="H25" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="I25" t="s" s="0">
-        <v>39</v>
       </c>
       <c r="J25" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s" s="0">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M25" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N25" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O25" t="s" s="0">
         <v>30</v>
@@ -2229,49 +2202,49 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I26" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="H26" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="I26" t="s" s="0">
-        <v>24</v>
       </c>
       <c r="J26" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L26" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M26" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N26" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O26" t="s" s="0">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="P26" t="s" s="0">
         <v>28</v>
@@ -2279,49 +2252,49 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="J27" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s" s="0">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N27" t="s" s="0">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O27" t="s" s="0">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="P27" t="s" s="0">
         <v>28</v>
@@ -2329,49 +2302,49 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J28" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="L28" t="s" s="0">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="M28" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N28" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O28" t="s" s="0">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="P28" t="s" s="0">
         <v>28</v>
@@ -2379,49 +2352,49 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="J29" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="L29" t="s" s="0">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="M29" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N29" t="s" s="0">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="O29" t="s" s="0">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="P29" t="s" s="0">
         <v>28</v>
@@ -2429,40 +2402,40 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="C30" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>141</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s" s="0">
-        <v>22</v>
-      </c>
       <c r="H30" t="s" s="0">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J30" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L30" t="s" s="0">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="M30" t="s" s="0">
         <v>28</v>
@@ -2485,40 +2458,40 @@
         <v>161</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J31" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L31" t="s" s="0">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M31" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N31" t="s" s="0">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="O31" t="s" s="0">
         <v>30</v>
@@ -2529,49 +2502,49 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="B32" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="C32" t="s" s="0">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J32" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L32" t="s" s="0">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M32" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N32" t="s" s="0">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O32" t="s" s="0">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="P32" t="s" s="0">
         <v>28</v>
@@ -2579,46 +2552,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E33" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="I33" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="F33" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="H33" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="I33" t="s" s="0">
-        <v>39</v>
-      </c>
       <c r="J33" t="s" s="0">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L33" t="s" s="0">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M33" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N33" t="s" s="0">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="O33" t="s" s="0">
         <v>30</v>
@@ -2635,43 +2608,43 @@
         <v>170</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s" s="0">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N34" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O34" t="s" s="0">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="P34" t="s" s="0">
         <v>28</v>
@@ -2679,46 +2652,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s" s="0">
         <v>24</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L35" t="s" s="0">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M35" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N35" t="s" s="0">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="O35" t="s" s="0">
         <v>30</v>
@@ -2729,46 +2702,46 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s" s="0">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="M36" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N36" t="s" s="0">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="O36" t="s" s="0">
         <v>30</v>
@@ -2782,43 +2755,43 @@
         <v>183</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K37" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L37" t="s" s="0">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="M37" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N37" t="s" s="0">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="O37" t="s" s="0">
         <v>30</v>
@@ -2835,43 +2808,43 @@
         <v>187</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="J38" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="L38" t="s" s="0">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N38" t="s" s="0">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="O38" t="s" s="0">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="P38" t="s" s="0">
         <v>28</v>
@@ -2879,49 +2852,49 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="C39" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C39" t="s" s="0">
-        <v>178</v>
-      </c>
       <c r="D39" t="s" s="0">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="I39" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="H39" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="I39" t="s" s="0">
-        <v>154</v>
       </c>
       <c r="J39" t="s" s="0">
         <v>192</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L39" t="s" s="0">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M39" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N39" t="s" s="0">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="O39" t="s" s="0">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="P39" t="s" s="0">
         <v>28</v>
@@ -2935,93 +2908,93 @@
         <v>194</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="I40" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="F40" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="I40" t="s" s="0">
-        <v>50</v>
-      </c>
       <c r="J40" t="s" s="0">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L40" t="s" s="0">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M40" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N40" t="s" s="0">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="O40" t="s" s="0">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="P40" t="s" s="0">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="I41" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="F41" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="H41" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="I41" t="s" s="0">
-        <v>24</v>
-      </c>
       <c r="J41" t="s" s="0">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L41" t="s" s="0">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M41" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N41" t="s" s="0">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="O41" t="s" s="0">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="P41" t="s" s="0">
         <v>28</v>
@@ -3029,49 +3002,49 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="J42" t="s" s="0">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L42" t="s" s="0">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M42" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N42" t="s" s="0">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="O42" t="s" s="0">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="P42" t="s" s="0">
         <v>28</v>
@@ -3079,49 +3052,49 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="D43" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L43" t="s" s="0">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M43" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N43" t="s" s="0">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="O43" t="s" s="0">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="P43" t="s" s="0">
         <v>28</v>
@@ -3129,99 +3102,99 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="D44" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="J44" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="C44" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F44" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G44" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="I44" t="s" s="0">
-        <v>154</v>
-      </c>
-      <c r="J44" t="s" s="0">
+      <c r="K44" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="K44" t="s" s="0">
-        <v>95</v>
-      </c>
       <c r="L44" t="s" s="0">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="M44" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N44" t="s" s="0">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="O44" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="P44" t="s" s="0">
-        <v>206</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="L45" t="s" s="0">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="M45" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N45" t="s" s="0">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="O45" t="s" s="0">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="P45" t="s" s="0">
         <v>28</v>
@@ -3229,49 +3202,49 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="C46" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D46" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="E46" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F46" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K46" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L46" t="s" s="0">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="M46" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N46" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O46" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P46" t="s" s="0">
         <v>28</v>
@@ -3279,46 +3252,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C47" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="D47" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D47" t="s" s="0">
-        <v>19</v>
-      </c>
       <c r="E47" t="s" s="0">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="K47" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="H47" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="I47" t="s" s="0">
-        <v>154</v>
-      </c>
-      <c r="J47" t="s" s="0">
-        <v>218</v>
-      </c>
-      <c r="K47" t="s" s="0">
-        <v>219</v>
-      </c>
       <c r="L47" t="s" s="0">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M47" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N47" t="s" s="0">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="O47" t="s" s="0">
         <v>30</v>
@@ -3329,96 +3302,96 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N48" t="s" s="0">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="O48" t="s" s="0">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="P48" t="s" s="0">
-        <v>228</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J49" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K49" t="s" s="0">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="L49" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M49" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N49" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="O49" t="s" s="0">
         <v>30</v>
@@ -3429,49 +3402,49 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="H50" t="s" s="0">
         <v>235</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>236</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D50" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E50" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F50" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G50" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s" s="0">
-        <v>38</v>
       </c>
       <c r="I50" t="s" s="0">
         <v>24</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="L50" t="s" s="0">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M50" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N50" t="s" s="0">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O50" t="s" s="0">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="P50" t="s" s="0">
         <v>28</v>
@@ -3479,49 +3452,49 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="G51" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="J51" t="s" s="0">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K51" t="s" s="0">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="L51" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="M51" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N51" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="O51" t="s" s="0">
         <v>245</v>
-      </c>
-      <c r="M51" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N51" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="O51" t="s" s="0">
-        <v>30</v>
       </c>
       <c r="P51" t="s" s="0">
         <v>28</v>
@@ -3529,99 +3502,99 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>243</v>
+        <v>135</v>
       </c>
       <c r="I52" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K52" t="s" s="0">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="L52" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M52" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N52" t="s" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O52" t="s" s="0">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="P52" t="s" s="0">
-        <v>254</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I53" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J53" t="s" s="0">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K53" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="L53" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="M53" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N53" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="O53" t="s" s="0">
         <v>245</v>
-      </c>
-      <c r="L53" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="M53" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N53" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="O53" t="s" s="0">
-        <v>253</v>
       </c>
       <c r="P53" t="s" s="0">
         <v>28</v>
@@ -3629,49 +3602,49 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s" s="0">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K54" t="s" s="0">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="L54" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M54" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N54" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O54" t="s" s="0">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="P54" t="s" s="0">
         <v>28</v>
@@ -3679,49 +3652,49 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s" s="0">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="J55" t="s" s="0">
         <v>268</v>
       </c>
       <c r="K55" t="s" s="0">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="L55" t="s" s="0">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="M55" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N55" t="s" s="0">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="O55" t="s" s="0">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P55" t="s" s="0">
         <v>28</v>
@@ -3729,49 +3702,49 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G56" t="s" s="0">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I56" t="s" s="0">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="J56" t="s" s="0">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K56" t="s" s="0">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="L56" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M56" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N56" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O56" t="s" s="0">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="P56" t="s" s="0">
         <v>28</v>
@@ -3779,201 +3752,101 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="F57" t="s" s="0">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="G57" t="s" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I57" t="s" s="0">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="J57" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K57" t="s" s="0">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="L57" t="s" s="0">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M57" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N57" t="s" s="0">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O57" t="s" s="0">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="P57" t="s" s="0">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s" s="0">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="G58" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I58" t="s" s="0">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="J58" t="s" s="0">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K58" t="s" s="0">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L58" t="s" s="0">
-        <v>284</v>
+        <v>47</v>
       </c>
       <c r="M58" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N58" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O58" t="s" s="0">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="P58" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>286</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>287</v>
-      </c>
-      <c r="C59" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="D59" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="E59" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="F59" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="G59" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="H59" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="I59" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="J59" t="s" s="0">
-        <v>288</v>
-      </c>
-      <c r="K59" t="s" s="0">
-        <v>283</v>
-      </c>
-      <c r="L59" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="M59" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N59" t="s" s="0">
-        <v>290</v>
-      </c>
-      <c r="O59" t="s" s="0">
-        <v>253</v>
-      </c>
-      <c r="P59" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>291</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>292</v>
-      </c>
-      <c r="C60" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="D60" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E60" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F60" t="s" s="0">
-        <v>293</v>
-      </c>
-      <c r="G60" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="H60" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="I60" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="J60" t="s" s="0">
-        <v>294</v>
-      </c>
-      <c r="K60" t="s" s="0">
-        <v>295</v>
-      </c>
-      <c r="L60" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="M60" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N60" t="s" s="0">
-        <v>296</v>
-      </c>
-      <c r="O60" t="s" s="0">
-        <v>253</v>
-      </c>
-      <c r="P60" t="s" s="0">
         <v>28</v>
       </c>
     </row>

--- a/DATNFE/src/main/resources/excel/export.xlsx
+++ b/DATNFE/src/main/resources/excel/export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="299">
   <si>
     <t>Mã</t>
   </si>
@@ -62,75 +62,117 @@
     <t>Độ hot</t>
   </si>
   <si>
+    <t>SP61</t>
+  </si>
+  <si>
+    <t>Giày Cao Gót Balenciaga Black BB Pumps Velvet</t>
+  </si>
+  <si>
+    <t>Calvin Klein</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Vải lưới</t>
+  </si>
+  <si>
+    <t>Đế giày Christy Wedge</t>
+  </si>
+  <si>
+    <t>Vàng Hồng</t>
+  </si>
+  <si>
+    <t>Nhật Bản</t>
+  </si>
+  <si>
+    <t>Giày Lười</t>
+  </si>
+  <si>
+    <t>Đôi giày được làm từ chất liệu cao cấp mang lại cảm giác thoải mái khi đi lên chân.</t>
+  </si>
+  <si>
+    <t>11500000</t>
+  </si>
+  <si>
+    <t>1300000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1079000</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>SP60</t>
+  </si>
+  <si>
+    <t>Giày Balenciaga Speed Sneaker Màu Đen</t>
+  </si>
+  <si>
+    <t>Gucci</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Da tổng hợp</t>
+  </si>
+  <si>
+    <t>Đế kếp</t>
+  </si>
+  <si>
+    <t>Trắng</t>
+  </si>
+  <si>
+    <t>Ý</t>
+  </si>
+  <si>
+    <t>Giày thể thao</t>
+  </si>
+  <si>
+    <t>12000000</t>
+  </si>
+  <si>
+    <t>13000000</t>
+  </si>
+  <si>
+    <t>10400000</t>
+  </si>
+  <si>
+    <t>SP59</t>
+  </si>
+  <si>
+    <t>SP58</t>
+  </si>
+  <si>
     <t>SP57</t>
   </si>
   <si>
-    <t>Giày Balenciaga Speed Sneaker Màu Đen</t>
-  </si>
-  <si>
     <t>Balenciaga</t>
   </si>
   <si>
-    <t>Nam</t>
-  </si>
-  <si>
     <t>Da cao cấp</t>
   </si>
   <si>
-    <t>Đế kếp</t>
-  </si>
-  <si>
     <t>Đen</t>
   </si>
   <si>
     <t>Tây Ban Nha</t>
   </si>
   <si>
-    <t>Giày thể thao</t>
-  </si>
-  <si>
-    <t>Đôi giày được làm từ chất liệu cao cấp mang lại cảm giác thoải mái khi đi lên chân.</t>
-  </si>
-  <si>
-    <t>12000000</t>
-  </si>
-  <si>
-    <t>13000000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10400000</t>
-  </si>
-  <si>
-    <t>2023-11-27</t>
-  </si>
-  <si>
     <t>SP56</t>
   </si>
   <si>
-    <t>Giày Cao Gót Balenciaga Black BB Pumps Velvet</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
     <t>Đế da</t>
   </si>
   <si>
     <t>Giày cao gót</t>
   </si>
   <si>
-    <t>11500000</t>
-  </si>
-  <si>
-    <t>1300000</t>
-  </si>
-  <si>
-    <t>1079000</t>
-  </si>
-  <si>
     <t>SP55</t>
   </si>
   <si>
@@ -146,12 +188,6 @@
     <t>Giày Sục Nam Balenciaga Slipper Cosy Black Leather Logo BB</t>
   </si>
   <si>
-    <t>Trắng</t>
-  </si>
-  <si>
-    <t>Giày Lười</t>
-  </si>
-  <si>
     <t>12500000</t>
   </si>
   <si>
@@ -254,9 +290,6 @@
     <t>Giày Thể Thao Adidas Grand Court F36392/F36483/GW6511</t>
   </si>
   <si>
-    <t>Da tổng hợp</t>
-  </si>
-  <si>
     <t>1500000</t>
   </si>
   <si>
@@ -335,6 +368,9 @@
     <t>2023-11-17</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>SP41</t>
   </si>
   <si>
@@ -359,9 +395,6 @@
     <t>Nike</t>
   </si>
   <si>
-    <t>Vàng Hồng</t>
-  </si>
-  <si>
     <t>Mỹ</t>
   </si>
   <si>
@@ -374,9 +407,6 @@
     <t>Giày Thể Thao Nike Downshifter 11 Road Running Shoes</t>
   </si>
   <si>
-    <t>Vải lưới</t>
-  </si>
-  <si>
     <t>SP38</t>
   </si>
   <si>
@@ -419,9 +449,6 @@
     <t>Bạc</t>
   </si>
   <si>
-    <t>Ý</t>
-  </si>
-  <si>
     <t>7470000</t>
   </si>
   <si>
@@ -581,15 +608,15 @@
     <t>2023-11-21</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>SP20</t>
   </si>
   <si>
     <t>Giày Lười Nữ Calvin Klein CK Womens Lacy Flats</t>
   </si>
   <si>
-    <t>Calvin Klein</t>
-  </si>
-  <si>
     <t>Thiết kế giày đơn giản, trẻ trung cùng chất liệu cao cấp, mang lại vẻ đẹp sang trọng và thoải mái cho người dùng.</t>
   </si>
   <si>
@@ -611,6 +638,9 @@
     <t>Thiết kế giày C&amp;K đơn giản, trẻ trung cùng chất liệu cao cấp sẽ cho bạn trải nghiệm tuyệt vời khi đi lên chân.</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>SP16</t>
   </si>
   <si>
@@ -623,9 +653,6 @@
     <t>Giày Lười Nữ Gucci Leather Espadrille With Double G</t>
   </si>
   <si>
-    <t>Gucci</t>
-  </si>
-  <si>
     <t>là đôi giày cao cấp dành cho nữ đến từ thương hiệu Gucci nổi tiếng. Mẫu giày với thiết kế gam màu trẻ trung, sang trọng nên được các cô gái yêu thích và săn đón.</t>
   </si>
   <si>
@@ -677,6 +704,9 @@
     <t>2023-11-13</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>SP12</t>
   </si>
   <si>
@@ -750,6 +780,9 @@
   </si>
   <si>
     <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>SP8</t>
@@ -926,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -937,7 +970,7 @@
     <col min="3" max="3" width="14.69140625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.37890625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.89453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.94140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="9.84765625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="10.93359375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.71875" customWidth="true" bestFit="true"/>
@@ -1058,40 +1091,40 @@
         <v>32</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s" s="0">
         <v>30</v>
@@ -1102,16 +1135,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>20</v>
@@ -1126,22 +1159,22 @@
         <v>23</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>30</v>
@@ -1152,46 +1185,46 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O5" t="s" s="0">
         <v>30</v>
@@ -1202,49 +1235,49 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>52</v>
-      </c>
       <c r="I6" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s" s="0">
         <v>28</v>
@@ -1252,49 +1285,49 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="D7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>21</v>
-      </c>
       <c r="G7" t="s" s="0">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s" s="0">
         <v>52</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>45</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>28</v>
@@ -1302,46 +1335,46 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s" s="0">
         <v>52</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>45</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O8" t="s" s="0">
         <v>30</v>
@@ -1352,28 +1385,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>24</v>
@@ -1382,16 +1415,16 @@
         <v>25</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="O9" t="s" s="0">
         <v>30</v>
@@ -1402,28 +1435,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>24</v>
@@ -1432,19 +1465,19 @@
         <v>25</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="P10" t="s" s="0">
         <v>28</v>
@@ -1452,28 +1485,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s" s="0">
         <v>24</v>
@@ -1482,19 +1515,19 @@
         <v>25</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s" s="0">
         <v>28</v>
@@ -1502,28 +1535,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s" s="0">
         <v>24</v>
@@ -1532,16 +1565,16 @@
         <v>25</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="M12" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N12" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="O12" t="s" s="0">
         <v>30</v>
@@ -1552,46 +1585,46 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N13" t="s" s="0">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O13" t="s" s="0">
         <v>30</v>
@@ -1602,49 +1635,49 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="M14" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N14" t="s" s="0">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P14" t="s" s="0">
         <v>28</v>
@@ -1652,46 +1685,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="M15" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N15" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s" s="0">
         <v>30</v>
@@ -1702,40 +1735,40 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s" s="0">
         <v>28</v>
@@ -1752,37 +1785,37 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="L17" t="s" s="0">
         <v>82</v>
@@ -1791,10 +1824,10 @@
         <v>28</v>
       </c>
       <c r="N17" t="s" s="0">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="P17" t="s" s="0">
         <v>28</v>
@@ -1802,49 +1835,49 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M18" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N18" t="s" s="0">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P18" t="s" s="0">
         <v>28</v>
@@ -1852,49 +1885,49 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="L19" t="s" s="0">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M19" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N19" t="s" s="0">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O19" t="s" s="0">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="P19" t="s" s="0">
         <v>28</v>
@@ -1902,46 +1935,46 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M20" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N20" t="s" s="0">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O20" t="s" s="0">
         <v>30</v>
@@ -1952,99 +1985,99 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L21" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M21" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N21" t="s" s="0">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O21" t="s" s="0">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="P21" t="s" s="0">
-        <v>28</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L22" t="s" s="0">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="M22" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N22" t="s" s="0">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="O22" t="s" s="0">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="P22" t="s" s="0">
         <v>28</v>
@@ -2052,49 +2085,49 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="D23" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="C23" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>116</v>
-      </c>
       <c r="I23" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K23" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="L23" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="M23" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N23" t="s" s="0">
-        <v>130</v>
-      </c>
       <c r="O23" t="s" s="0">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="P23" t="s" s="0">
         <v>28</v>
@@ -2102,46 +2135,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K24" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N24" t="s" s="0">
         <v>128</v>
-      </c>
-      <c r="L24" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="M24" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N24" t="s" s="0">
-        <v>136</v>
       </c>
       <c r="O24" t="s" s="0">
         <v>30</v>
@@ -2152,46 +2185,46 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="L25" t="s" s="0">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="M25" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N25" t="s" s="0">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O25" t="s" s="0">
         <v>30</v>
@@ -2202,49 +2235,49 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="L26" t="s" s="0">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="M26" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N26" t="s" s="0">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="O26" t="s" s="0">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="P26" t="s" s="0">
         <v>28</v>
@@ -2252,49 +2285,49 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s" s="0">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M27" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N27" t="s" s="0">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O27" t="s" s="0">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="P27" t="s" s="0">
         <v>28</v>
@@ -2302,46 +2335,46 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="0">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="M28" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N28" t="s" s="0">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="O28" t="s" s="0">
         <v>30</v>
@@ -2352,28 +2385,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="0">
         <v>24</v>
@@ -2382,16 +2415,16 @@
         <v>25</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s" s="0">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="M29" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N29" t="s" s="0">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="O29" t="s" s="0">
         <v>30</v>
@@ -2402,28 +2435,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="0">
         <v>24</v>
@@ -2432,19 +2465,19 @@
         <v>25</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="L30" t="s" s="0">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="M30" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N30" t="s" s="0">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O30" t="s" s="0">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="P30" t="s" s="0">
         <v>28</v>
@@ -2452,49 +2485,49 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="J31" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s" s="0">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="M31" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N31" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O31" t="s" s="0">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="P31" t="s" s="0">
         <v>28</v>
@@ -2502,49 +2535,49 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L32" t="s" s="0">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="M32" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N32" t="s" s="0">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O32" t="s" s="0">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="P32" t="s" s="0">
         <v>28</v>
@@ -2552,46 +2585,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="0">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="M33" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N33" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="O33" t="s" s="0">
         <v>30</v>
@@ -2602,46 +2635,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="L34" t="s" s="0">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="M34" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N34" t="s" s="0">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="O34" t="s" s="0">
         <v>30</v>
@@ -2652,46 +2685,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>170</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="I35" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="L35" t="s" s="0">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M35" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N35" t="s" s="0">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="O35" t="s" s="0">
         <v>30</v>
@@ -2702,49 +2735,49 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s" s="0">
         <v>25</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="L36" t="s" s="0">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="M36" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N36" t="s" s="0">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="O36" t="s" s="0">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="P36" t="s" s="0">
         <v>28</v>
@@ -2752,46 +2785,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="L37" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="M37" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N37" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="H37" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="I37" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="J37" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="K37" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="L37" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="M37" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N37" t="s" s="0">
-        <v>164</v>
       </c>
       <c r="O37" t="s" s="0">
         <v>30</v>
@@ -2802,49 +2835,49 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s" s="0">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s" s="0">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N38" t="s" s="0">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="O38" t="s" s="0">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="P38" t="s" s="0">
         <v>28</v>
@@ -2852,49 +2885,49 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J39" t="s" s="0">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L39" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="M39" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N39" t="s" s="0">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="O39" t="s" s="0">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="P39" t="s" s="0">
         <v>28</v>
@@ -2902,46 +2935,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I40" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="D40" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="I40" t="s" s="0">
-        <v>45</v>
-      </c>
       <c r="J40" t="s" s="0">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="L40" t="s" s="0">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="M40" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N40" t="s" s="0">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O40" t="s" s="0">
         <v>30</v>
@@ -2952,46 +2985,46 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B41" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="J41" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="C41" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="H41" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="I41" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="J41" t="s" s="0">
-        <v>192</v>
-      </c>
       <c r="K41" t="s" s="0">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L41" t="s" s="0">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="M41" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N41" t="s" s="0">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O41" t="s" s="0">
         <v>30</v>
@@ -3002,52 +3035,52 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B42" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B42" t="s" s="0">
+      <c r="C42" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="L42" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="M42" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N42" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="O42" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C42" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="D42" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="F42" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H42" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="I42" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="J42" t="s" s="0">
+      <c r="P42" t="s" s="0">
         <v>198</v>
-      </c>
-      <c r="K42" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="L42" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="M42" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N42" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="O42" t="s" s="0">
-        <v>188</v>
-      </c>
-      <c r="P42" t="s" s="0">
-        <v>28</v>
       </c>
     </row>
     <row r="43">
@@ -3058,43 +3091,43 @@
         <v>200</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="0">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="M43" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N43" t="s" s="0">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O43" t="s" s="0">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="P43" t="s" s="0">
         <v>28</v>
@@ -3102,49 +3135,49 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B44" t="s" s="0">
-        <v>202</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E44" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="F44" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s" s="0">
-        <v>135</v>
-      </c>
-      <c r="I44" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="J44" t="s" s="0">
-        <v>204</v>
-      </c>
       <c r="K44" t="s" s="0">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s" s="0">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="M44" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N44" t="s" s="0">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="O44" t="s" s="0">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="P44" t="s" s="0">
         <v>28</v>
@@ -3152,46 +3185,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s" s="0">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="M45" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N45" t="s" s="0">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="O45" t="s" s="0">
         <v>30</v>
@@ -3202,99 +3235,99 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K46" t="s" s="0">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="L46" t="s" s="0">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="M46" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N46" t="s" s="0">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="O46" t="s" s="0">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="P46" t="s" s="0">
-        <v>28</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="L47" t="s" s="0">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="M47" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N47" t="s" s="0">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="O47" t="s" s="0">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="P47" t="s" s="0">
         <v>28</v>
@@ -3302,49 +3335,49 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s" s="0">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="M48" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N48" t="s" s="0">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="O48" t="s" s="0">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="P48" t="s" s="0">
         <v>28</v>
@@ -3352,46 +3385,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="J49" t="s" s="0">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="K49" t="s" s="0">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="L49" t="s" s="0">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="M49" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N49" t="s" s="0">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="O49" t="s" s="0">
         <v>30</v>
@@ -3402,99 +3435,99 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="F50" t="s" s="0">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="L50" t="s" s="0">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="M50" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N50" t="s" s="0">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="O50" t="s" s="0">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="P50" t="s" s="0">
-        <v>28</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C51" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="J51" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="D51" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="E51" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F51" t="s" s="0">
-        <v>248</v>
-      </c>
-      <c r="G51" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="H51" t="s" s="0">
+      <c r="K51" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="L51" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="I51" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="J51" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="K51" t="s" s="0">
-        <v>237</v>
-      </c>
-      <c r="L51" t="s" s="0">
-        <v>70</v>
-      </c>
       <c r="M51" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N51" t="s" s="0">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="O51" t="s" s="0">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="P51" t="s" s="0">
         <v>28</v>
@@ -3502,49 +3535,49 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s" s="0">
         <v>24</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="K52" t="s" s="0">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="L52" t="s" s="0">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="M52" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N52" t="s" s="0">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="O52" t="s" s="0">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="P52" t="s" s="0">
         <v>28</v>
@@ -3552,49 +3585,49 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="K53" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="L53" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="M53" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N53" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="G53" t="s" s="0">
-        <v>258</v>
-      </c>
-      <c r="H53" t="s" s="0">
-        <v>235</v>
-      </c>
-      <c r="I53" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="J53" t="s" s="0">
-        <v>259</v>
-      </c>
-      <c r="K53" t="s" s="0">
-        <v>237</v>
-      </c>
-      <c r="L53" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="M53" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N53" t="s" s="0">
-        <v>90</v>
-      </c>
       <c r="O53" t="s" s="0">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="P53" t="s" s="0">
         <v>28</v>
@@ -3602,99 +3635,99 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="I54" t="s" s="0">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="K54" t="s" s="0">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="L54" t="s" s="0">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="M54" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N54" t="s" s="0">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="O54" t="s" s="0">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="P54" t="s" s="0">
-        <v>28</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="G55" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="J55" t="s" s="0">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K55" t="s" s="0">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="L55" t="s" s="0">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="M55" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N55" t="s" s="0">
-        <v>269</v>
+        <v>168</v>
       </c>
       <c r="O55" t="s" s="0">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="P55" t="s" s="0">
         <v>28</v>
@@ -3702,49 +3735,49 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s" s="0">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J56" t="s" s="0">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="K56" t="s" s="0">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L56" t="s" s="0">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M56" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N56" t="s" s="0">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="O56" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="P56" t="s" s="0">
         <v>28</v>
@@ -3752,49 +3785,49 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="F57" t="s" s="0">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="G57" t="s" s="0">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="I57" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J57" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="K57" t="s" s="0">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="L57" t="s" s="0">
-        <v>280</v>
+        <v>82</v>
       </c>
       <c r="M57" t="s" s="0">
         <v>28</v>
       </c>
       <c r="N57" t="s" s="0">
-        <v>281</v>
+        <v>101</v>
       </c>
       <c r="O57" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="P57" t="s" s="0">
         <v>28</v>
@@ -3802,51 +3835,251 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D58" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I58" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="J58" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="K58" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="L58" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="M58" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N58" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="O58" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="P58" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="K59" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="L59" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="M59" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N59" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="O59" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="P59" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I60" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J60" t="s" s="0">
         <v>284</v>
       </c>
-      <c r="G58" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="I58" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="J58" t="s" s="0">
+      <c r="K60" t="s" s="0">
         <v>285</v>
       </c>
-      <c r="K58" t="s" s="0">
+      <c r="L60" t="s" s="0">
         <v>286</v>
       </c>
-      <c r="L58" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="M58" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N58" t="s" s="0">
+      <c r="M60" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N60" t="s" s="0">
         <v>287</v>
       </c>
-      <c r="O58" t="s" s="0">
-        <v>245</v>
-      </c>
-      <c r="P58" t="s" s="0">
+      <c r="O60" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="P60" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H61" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="K61" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="L61" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="M61" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N61" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="O61" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="P61" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H62" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I62" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="K62" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="L62" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="M62" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N62" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="O62" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="P62" t="s" s="0">
         <v>28</v>
       </c>
     </row>
